--- a/data/toxicities/raw/Dean_etal_2020_AppendixA.xlsx
+++ b/data/toxicities/raw/Dean_etal_2020_AppendixA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/toxicities/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52918C79-4EF1-DF4A-A0D6-62DC09B8FA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB025A-2FC4-434B-9252-97471CA99953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{9FFE6384-0F5B-F64F-ACD3-51BC831EA89D}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="296">
   <si>
     <t>order</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Whelk</t>
   </si>
   <si>
-    <t>Buccinidae (indet.)</t>
-  </si>
-  <si>
     <t>Molluscs</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Crustacean (Anomura &amp;CEND 005 2018</t>
   </si>
   <si>
-    <t>Hermit crab</t>
-  </si>
-  <si>
     <t>Pagurus bernhardus</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Anemone</t>
   </si>
   <si>
-    <t>Actiniaria (indet.)</t>
-  </si>
-  <si>
     <t>Actiniaria</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>Crustacean (Natania &amp;CEND 032 2018</t>
   </si>
   <si>
-    <t>Shrimp</t>
-  </si>
-  <si>
     <t>Crangon sp.</t>
   </si>
   <si>
@@ -451,9 +439,6 @@
     <t>CEND 065 2019</t>
   </si>
   <si>
-    <t>Common Starfish</t>
-  </si>
-  <si>
     <t>CEND 066 2019</t>
   </si>
   <si>
@@ -514,9 +499,6 @@
     <t>CEND 084 2019</t>
   </si>
   <si>
-    <t>Seven-armed Starfish</t>
-  </si>
-  <si>
     <t>CEND 085 2019</t>
   </si>
   <si>
@@ -541,9 +523,6 @@
     <t>Portunid crabs</t>
   </si>
   <si>
-    <t>Portunidae (indet.)</t>
-  </si>
-  <si>
     <t>CEND 088 2019</t>
   </si>
   <si>
@@ -556,9 +535,6 @@
     <t>Crustacean (Anomura &amp;CEND 090 2019</t>
   </si>
   <si>
-    <t>Hermit Crab</t>
-  </si>
-  <si>
     <t>Pagurus sp.</t>
   </si>
   <si>
@@ -664,9 +640,6 @@
     <t>Bivalve</t>
   </si>
   <si>
-    <t>Bivalvia (indet.)</t>
-  </si>
-  <si>
     <t>CEND 115 2019</t>
   </si>
   <si>
@@ -880,9 +853,6 @@
     <t>Crustacean (Natania &amp;CEND 175 2019</t>
   </si>
   <si>
-    <t>Natantia (indet.)</t>
-  </si>
-  <si>
     <t>CEND 176 2019</t>
   </si>
   <si>
@@ -902,6 +872,45 @@
   </si>
   <si>
     <t>CEND 013 2018</t>
+  </si>
+  <si>
+    <t>Common hermit crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagurus hermit crab sp. </t>
+  </si>
+  <si>
+    <t>White sea urchin</t>
+  </si>
+  <si>
+    <t>Red whelk</t>
+  </si>
+  <si>
+    <t>Common whelk</t>
+  </si>
+  <si>
+    <t>Crangon shrimp sp.</t>
+  </si>
+  <si>
+    <t>Crangon/Rissoides shrimp sp.</t>
+  </si>
+  <si>
+    <t>Natantia shrimp sp.</t>
+  </si>
+  <si>
+    <t>Crangon/Pandalus shrimp sp.</t>
+  </si>
+  <si>
+    <t>Actiniaria sp.</t>
+  </si>
+  <si>
+    <t>Bivalvia sp.</t>
+  </si>
+  <si>
+    <t>Portunidae sp.</t>
+  </si>
+  <si>
+    <t>Buccinidae sp.</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1782,8 @@
   <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1791,7 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
@@ -1820,735 +1829,735 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>359</v>
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>31</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>92</v>
+      </c>
+      <c r="I9">
         <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
       </c>
       <c r="I13">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="C14">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="H14">
-        <v>32</v>
+      <c r="H14" t="s">
+        <v>79</v>
       </c>
       <c r="I14">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I15">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="H16">
-        <v>21</v>
-      </c>
-      <c r="I16">
-        <v>23</v>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C17">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C18">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C19">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="C20">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
-        <v>20</v>
+      <c r="H21">
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s">
-        <v>20</v>
+      <c r="H23">
+        <v>593</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="I25">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="H26">
-        <v>3</v>
+      <c r="H26" t="s">
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>82</v>
+      <c r="I27">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>27</v>
-      </c>
-      <c r="I28" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="I29">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>112</v>
@@ -2557,1030 +2566,1030 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32">
-        <v>172</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="H35" t="s">
-        <v>20</v>
+      <c r="H35">
+        <v>34</v>
       </c>
       <c r="I35">
-        <v>395</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
-      <c r="H37" t="s">
-        <v>20</v>
+      <c r="H37">
+        <v>6</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I38">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="H39">
-        <v>26</v>
+      <c r="H39" t="s">
+        <v>19</v>
       </c>
       <c r="I39">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40">
         <v>12</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41">
-        <v>302</v>
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
       </c>
       <c r="I41">
-        <v>227</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C42">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>33</v>
       </c>
       <c r="I42">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>14</v>
-      </c>
-      <c r="I43" t="s">
-        <v>82</v>
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C44">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="H44">
-        <v>20</v>
-      </c>
-      <c r="I44">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="C45">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="H45">
+        <v>34</v>
+      </c>
+      <c r="I45">
         <v>10</v>
-      </c>
-      <c r="I45" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C46">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="C47">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
-      <c r="H47" t="s">
-        <v>82</v>
+      <c r="H47">
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="C48">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="I48">
-        <v>135</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49">
-        <v>132</v>
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>79</v>
       </c>
       <c r="I49">
-        <v>131</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="C50">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50">
-        <v>176</v>
-      </c>
-      <c r="I50">
-        <v>169</v>
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="C51">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="H51">
-        <v>103</v>
-      </c>
-      <c r="I51">
-        <v>98</v>
+        <v>25</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="C52">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>7</v>
-      </c>
-      <c r="I52" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C54">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>9</v>
-      </c>
-      <c r="I54" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="I54">
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C55">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
         <v>19</v>
       </c>
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s">
-        <v>82</v>
+      <c r="I55">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C56">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="H56">
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C57">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57">
-        <v>133</v>
+        <v>79</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C58">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58">
-        <v>8</v>
-      </c>
-      <c r="I58">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="C59">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C60">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60">
-        <v>11</v>
+        <v>142</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C61">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C62">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="H62">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>82</v>
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="I63">
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C64">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="C65">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H65">
-        <v>26</v>
-      </c>
-      <c r="I65" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="I65">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="C66">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>377</v>
+      </c>
+      <c r="I66">
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
       </c>
       <c r="I67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="C68">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
-      </c>
-      <c r="H68">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="H68" t="s">
+        <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
       </c>
       <c r="I69">
         <v>48</v>
@@ -3588,2391 +3597,2391 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="C70">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H70">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I70">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="C71">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C72">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72">
-        <v>30</v>
-      </c>
-      <c r="I72" t="s">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" t="s">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <v>93</v>
+      </c>
+      <c r="I73">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H74">
-        <v>587</v>
+        <v>11</v>
       </c>
       <c r="I74">
-        <v>357</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C75">
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C76">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>79</v>
       </c>
       <c r="I76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C77">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>79</v>
       </c>
       <c r="I77">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78">
-        <v>34</v>
-      </c>
-      <c r="I78">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="H78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>215</v>
+      </c>
+      <c r="E79" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79">
+        <v>66</v>
+      </c>
+      <c r="I79">
         <v>13</v>
-      </c>
-      <c r="D79" t="s">
-        <v>209</v>
-      </c>
-      <c r="E79" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79">
-        <v>9</v>
-      </c>
-      <c r="I79">
-        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H80">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I80">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="I84">
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
-      </c>
-      <c r="H85" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="H85">
+        <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="E86" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
-      </c>
-      <c r="H86" t="s">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>41</v>
+      </c>
+      <c r="I86">
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H87">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="I87">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
       </c>
       <c r="I89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H90">
-        <v>1486</v>
-      </c>
-      <c r="I90">
-        <v>2091</v>
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
-      <c r="H91">
-        <v>21</v>
+      <c r="H91" t="s">
+        <v>79</v>
       </c>
       <c r="I91" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
-      <c r="H92">
-        <v>14</v>
-      </c>
-      <c r="I92">
-        <v>29</v>
+      <c r="H92" t="s">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
+        <v>245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>246</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="H93">
-        <v>10</v>
-      </c>
-      <c r="I93">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
       </c>
-      <c r="H94">
-        <v>317</v>
-      </c>
-      <c r="I94">
-        <v>354</v>
+      <c r="H94" t="s">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="H95">
-        <v>377</v>
-      </c>
-      <c r="I95">
-        <v>257</v>
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96">
-        <v>2744</v>
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>79</v>
       </c>
       <c r="I96">
-        <v>1461</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="H97">
-        <v>593</v>
+        <v>13</v>
       </c>
       <c r="I97">
-        <v>489</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H98">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>386</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99">
         <v>14</v>
       </c>
-      <c r="E99" t="s">
-        <v>252</v>
-      </c>
-      <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99">
-        <v>133</v>
-      </c>
-      <c r="I99">
-        <v>110</v>
+      <c r="I99" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
-      </c>
-      <c r="H100">
-        <v>562</v>
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
       </c>
       <c r="I100">
-        <v>288</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>254</v>
-      </c>
-      <c r="C101" t="s">
-        <v>255</v>
+        <v>279</v>
+      </c>
+      <c r="C101">
+        <v>77</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>82</v>
-      </c>
-      <c r="I101" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H102" t="s">
-        <v>82</v>
-      </c>
-      <c r="I102" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="H103">
+        <v>1486</v>
       </c>
       <c r="I103">
-        <v>10</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C104">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="H104">
+        <v>2744</v>
       </c>
       <c r="I104">
-        <v>11</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E105" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="I105">
-        <v>1275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D106" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
-      </c>
-      <c r="H106" t="s">
-        <v>82</v>
+        <v>142</v>
+      </c>
+      <c r="H106">
+        <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>21</v>
-      </c>
-      <c r="I107" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="I107">
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H108" t="s">
-        <v>82</v>
-      </c>
-      <c r="I108" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="I108">
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" t="s">
         <v>35</v>
       </c>
-      <c r="E109" t="s">
-        <v>36</v>
-      </c>
-      <c r="F109" t="s">
-        <v>37</v>
-      </c>
       <c r="H109" t="s">
-        <v>82</v>
-      </c>
-      <c r="I109" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="I109">
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="E110" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>104</v>
-      </c>
-      <c r="H110" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="H110">
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D111" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="H111">
+        <v>30</v>
       </c>
       <c r="I111" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E112" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" t="s">
-        <v>82</v>
-      </c>
-      <c r="I112" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="H112">
+        <v>587</v>
+      </c>
+      <c r="I112">
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="C113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H113" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I113" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="C114">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H114">
-        <v>14</v>
-      </c>
-      <c r="I114">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="I114" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C115">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" t="s">
         <v>35</v>
       </c>
-      <c r="E115" t="s">
-        <v>36</v>
-      </c>
-      <c r="F115" t="s">
-        <v>37</v>
-      </c>
       <c r="H115">
-        <v>37</v>
+        <v>443</v>
       </c>
       <c r="I115">
-        <v>46</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C116">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H116" t="s">
-        <v>82</v>
-      </c>
-      <c r="I116">
-        <v>183</v>
+        <v>79</v>
+      </c>
+      <c r="I116" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C117">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E117" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H117" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I117" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C118">
         <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E118" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="s">
-        <v>82</v>
-      </c>
-      <c r="I118" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="H118">
+        <v>37</v>
+      </c>
+      <c r="I118">
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C119">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D119" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E119" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119">
         <v>12</v>
       </c>
-      <c r="H119" t="s">
-        <v>82</v>
-      </c>
       <c r="I119">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>99</v>
       </c>
       <c r="C120">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="H120">
-        <v>12</v>
-      </c>
-      <c r="I120">
         <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="C121">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="H121">
+        <v>27</v>
       </c>
       <c r="I121" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="C122">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E122" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="H122">
+        <v>10</v>
       </c>
       <c r="I122" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B123" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="C123">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D123" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" t="s">
-        <v>82</v>
-      </c>
-      <c r="I123">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="C124">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="H124">
-        <v>22</v>
-      </c>
-      <c r="I124">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="I124" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="C125">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D125" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="E125" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
-      </c>
-      <c r="H125">
-        <v>1600</v>
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>19</v>
       </c>
       <c r="I125">
-        <v>1102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C126">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E126" t="s">
+        <v>70</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126">
         <v>26</v>
       </c>
-      <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="H126" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" t="s">
-        <v>20</v>
+      <c r="I126">
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C127">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D127" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
-      </c>
-      <c r="H127">
-        <v>4</v>
-      </c>
-      <c r="I127">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I127" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
+        <v>160</v>
+      </c>
+      <c r="B128" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" t="s">
         <v>12</v>
       </c>
-      <c r="B128" t="s">
-        <v>47</v>
-      </c>
-      <c r="C128">
-        <v>13</v>
-      </c>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" t="s">
-        <v>27</v>
-      </c>
       <c r="H128" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="I128" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C129">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="E129" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s">
-        <v>27</v>
-      </c>
-      <c r="H129">
-        <v>75</v>
-      </c>
-      <c r="I129">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="H129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C130">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H130">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="I130">
-        <v>8</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C131">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D131" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="E131" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="F131" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H131">
-        <v>4</v>
-      </c>
-      <c r="I131">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C132">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="H132" t="s">
+        <v>79</v>
       </c>
       <c r="I132">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="C133">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="E133" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F133" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H133">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I133">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="C134">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="E134" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H134">
-        <v>14</v>
-      </c>
-      <c r="I134">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="I134" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="C135">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E135" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="F135" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H135">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I135">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E136" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I136">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B137" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="E137" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="F137" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H137">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I137">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>3</v>
-      </c>
-      <c r="I138">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="I138" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F139" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H139">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I139">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140" t="s">
+        <v>73</v>
+      </c>
+      <c r="F140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140">
+        <v>14</v>
+      </c>
+      <c r="I140">
         <v>57</v>
-      </c>
-      <c r="E140" t="s">
-        <v>58</v>
-      </c>
-      <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="H140">
-        <v>47</v>
-      </c>
-      <c r="I140">
-        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="H141">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="I141">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B142" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" t="s">
-        <v>20</v>
+        <v>133</v>
+      </c>
+      <c r="H142">
+        <v>120</v>
       </c>
       <c r="I142">
-        <v>52</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D143" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F143" t="s">
-        <v>27</v>
-      </c>
-      <c r="H143" t="s">
-        <v>20</v>
+        <v>133</v>
+      </c>
+      <c r="H143">
+        <v>132</v>
       </c>
       <c r="I143">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144">
+        <v>71</v>
+      </c>
+      <c r="D144" t="s">
         <v>133</v>
-      </c>
-      <c r="C144">
-        <v>7</v>
-      </c>
-      <c r="D144" t="s">
-        <v>57</v>
       </c>
       <c r="E144" t="s">
         <v>134</v>
       </c>
       <c r="F144" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="H144">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="I144">
-        <v>11</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B145" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>71</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="E145" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="H145">
-        <v>24</v>
-      </c>
-      <c r="I145" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+      <c r="I145">
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="C146">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E146" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F146" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="H146">
-        <v>93</v>
+        <v>654</v>
       </c>
       <c r="I146">
-        <v>17</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="C147">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D147" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E147" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F147" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="H147">
-        <v>11</v>
+        <v>1600</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="C148">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="E148" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="H148" t="s">
-        <v>82</v>
-      </c>
-      <c r="I148" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="H148">
+        <v>4</v>
+      </c>
+      <c r="I148">
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="C149">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="E149" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
-      </c>
-      <c r="H149" t="s">
-        <v>82</v>
-      </c>
-      <c r="I149" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="H149">
+        <v>8</v>
+      </c>
+      <c r="I149">
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" t="s">
+        <v>55</v>
+      </c>
+      <c r="F150" t="s">
         <v>25</v>
       </c>
-      <c r="E150" t="s">
-        <v>26</v>
-      </c>
-      <c r="F150" t="s">
-        <v>27</v>
-      </c>
       <c r="H150" t="s">
-        <v>82</v>
-      </c>
-      <c r="I150" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="I150">
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="E151" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H151">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I151">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E152" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H152">
-        <v>25</v>
-      </c>
-      <c r="I152" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C153">
         <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="E153" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F153" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H153" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I153">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B154" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E154" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H154" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="H154">
+        <v>76</v>
       </c>
       <c r="I154">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E155" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="F155" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I155" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>242</v>
+        <v>54</v>
       </c>
       <c r="E156" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
-      </c>
-      <c r="H156">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H156" t="s">
+        <v>79</v>
       </c>
       <c r="I156">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="B157" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E157" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F157" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H157">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I157">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158">
         <v>27</v>
       </c>
-      <c r="H158" t="s">
-        <v>82</v>
-      </c>
-      <c r="I158" t="s">
-        <v>82</v>
+      <c r="I158">
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="B159" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="E159" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H159" t="s">
-        <v>82</v>
-      </c>
-      <c r="I159" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="I159">
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B160" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I160" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
-      </c>
-      <c r="H161" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="H161">
+        <v>20</v>
       </c>
       <c r="I161">
         <v>15</v>
@@ -5980,221 +5989,217 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D162" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H162" t="s">
-        <v>82</v>
-      </c>
-      <c r="I162" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="I162">
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B163" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="E163" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F163" t="s">
-        <v>86</v>
-      </c>
-      <c r="H163" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="E164" t="s">
+        <v>243</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164">
+        <v>133</v>
+      </c>
+      <c r="I164">
         <v>110</v>
-      </c>
-      <c r="F164" t="s">
-        <v>86</v>
-      </c>
-      <c r="H164">
-        <v>181</v>
-      </c>
-      <c r="I164">
-        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="C165">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="E165" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="F165" t="s">
-        <v>86</v>
-      </c>
-      <c r="H165">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H165" t="s">
+        <v>79</v>
       </c>
       <c r="I165" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="E166" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>46</v>
       </c>
       <c r="H166" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I166">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F167" t="s">
-        <v>86</v>
-      </c>
-      <c r="H167">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>19</v>
       </c>
       <c r="I167">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="C168">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D168" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E168" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="F168" t="s">
-        <v>86</v>
-      </c>
-      <c r="H168">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
+        <v>79</v>
       </c>
       <c r="I168" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="B169" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C169">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>20</v>
-      </c>
-      <c r="I169">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="I169" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I169" xr:uid="{F9F97289-090E-384C-9CF2-DDC4E0F738F6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I169">
-      <sortCondition ref="B1:B169"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I169" xr:uid="{F9F97289-090E-384C-9CF2-DDC4E0F738F6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>